--- a/medicine/Psychotrope/Thé_(repas)/Thé_(repas).xlsx
+++ b/medicine/Psychotrope/Thé_(repas)/Thé_(repas).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_(repas)</t>
+          <t>Thé_(repas)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé est une collation prise dans l'après-midi, consistant en thé (d'où l'origine du terme) et souvent aussi de boissons non alcoolisées comme les orangeades, citronnades, limonades ou autres infusions, le plus souvent accompagnées de gâteaux secs, de biscuits, de petits fours, etc. 
 Cette habitude s'est prise en France à la fin du XVIIIe siècle, alors que se développait une certaine anglomanie dans l'aristocratie. Cet usage s'est répandu dans la bourgeoisie au XIXe siècle et correspondait à une petite réception intime dans l'après-midi, surtout après cinq heures de l'après-midi, où la maîtresse de maison recevait selon un jour fixe. La multiplication des salons de thé à partir de la seconde moitié du XIXe siècle a fait entrer cette habitude dans les mœurs. Le thé ne se prolonge jamais après 19 heures.
